--- a/Data/Screeners/NH2022-03.xlsx
+++ b/Data/Screeners/NH2022-03.xlsx
@@ -14,6 +14,19 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-05" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-10" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-15" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-16" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-17" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-18" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-21" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-23" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-24" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-25" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-28" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-31" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -443,6 +456,5156 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOLT </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TH </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HDSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWX </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDW </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CINF </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANF </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNVR </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAP </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALM </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WELL </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALM </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANF </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNVR </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CINF </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMXI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VYGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TMST </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBHT </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HLLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HRMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALM </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BECN </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RYI </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCRI </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNVR </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CINF </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANF </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMXI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOLT </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HLLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALM </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GFS </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XPOF </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HRMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TMST </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAP </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VYGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HDSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DE </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGBD </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRN </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RYI </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANF </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ELP </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KZR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RYI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOX </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGBD </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNTH </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APLE </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALM </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWX </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IVT </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRN </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THG </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMXI </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CR </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDW </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PKG </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOLT </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HRMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GFS </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVST </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DE </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOH </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJR </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SII </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VYGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIG </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NE </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DLTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PWR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGML </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VYGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMRK </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCJ </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOX </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVST </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMXI </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALM </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLCA </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HDSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TMST </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWX </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSTG </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DE </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RS </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOTV </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIB </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANF </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUE </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBA </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIR </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SQM </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACM </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TIMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CR </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDW </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HES </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOLT </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IVT </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NE </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> X </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RYI </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PWR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XPL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGML </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VYGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRTC </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNVR </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNTH </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HDSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMRK </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RWAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOE </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RADA </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMXI </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THG </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HWM </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PANW </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TENB </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CR </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ELP </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IVT </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITUB </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSTG </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HRMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DE </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOX </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APLE </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RYI </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TMST </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RNER </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XPL </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GNK </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIST </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EIGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EC </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FWONK </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIB </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VYGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAP </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RWAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPY </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGML </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CRK </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDW </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLMN </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OVV </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HRMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PANW </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMS </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AR </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCJ </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SII </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATI </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HES </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AZN </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MEOH </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUE </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWNT </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATSG </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TMST </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANDE </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLF </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RWAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MP </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AZN </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGML </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIR </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJT </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CRK </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GFS </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LQDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ELP </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIST </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDY </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FWONA </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NE </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSTG </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> X </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SII </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUE </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMS </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITUB </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PANW </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TENB </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OKE </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AUY </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RADA </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COHR </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CEIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWNT </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALTO </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJT </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJR </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANDE </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MMLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHK </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GFS </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HTPA </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SD </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NE </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWI </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLCA </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLMN </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRP </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDY </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PANW </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MP </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HRMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GNK </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIR </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSTG </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CRK </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AR </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAP </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SU </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HPQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EIX </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IVT </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OVV </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBA </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUE </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SO </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1381,6 +6544,1068 @@
       <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve"> SYY </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PPGH </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CUTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVST </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STON </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APLE </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCRI </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARC </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RHP </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACET </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMRK </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVB </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HRMY </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HCKT </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XPOF </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RMBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KW </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATSG </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OGE </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDY </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIGI </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LLNW </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGBD </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOE </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IVT </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOX </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AXS </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRTC </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HST </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWX </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALM </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TVTY </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CR </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MP </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OBE </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWN </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FWONK </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SQM </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACET </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAP </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TEO </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJT </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AXS </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XPOF </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OGE </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBOW </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HST </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITUB </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMS </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
         </is>
       </c>
     </row>
@@ -6523,4 +12748,530 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BBAI </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HDSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDW </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CWST </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> METC </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TVTY </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SD </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWI </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LLNW </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNTH </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGLE </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NE </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GBX </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPY </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFRD </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> X </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HLLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NR </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RGLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APLE </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RXDX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>